--- a/Data (Stat293).xlsx
+++ b/Data (Stat293).xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="9820"/>
+    <workbookView windowWidth="15420" windowHeight="9820" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BMatch" sheetId="1" r:id="rId1"/>
     <sheet name="CardMatch" sheetId="4" r:id="rId2"/>
     <sheet name="ProfMatch" sheetId="6" r:id="rId3"/>
     <sheet name="OAL " sheetId="7" r:id="rId4"/>
+    <sheet name="CardMatch (GLPK)" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BMatch!$A$1:$I$32</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="57">
   <si>
     <t>Bmatch</t>
   </si>
@@ -180,6 +181,18 @@
   <si>
     <t>Somehow, an error is occuring… the error is likely with lqa unfortunately D:</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>N/A (&gt;=20 min)</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>N/A (&gt;=15 min)</t>
+  </si>
 </sst>
 </file>
 
@@ -207,50 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -259,71 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,7 +250,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +373,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,25 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,43 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,13 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,12 +567,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -583,8 +609,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +630,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -618,49 +664,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,140 +682,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8515,7 +8532,7 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8532,15 +8549,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -9367,15 +9384,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -10762,15 +10779,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -12313,6 +12330,2252 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="8.36283185840708" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.1769911504425" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.7256637168142" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="8.8141592920354" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.5398230088496" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.3628318584071" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.2654867256637" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.9026548672566" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.5398230088496" style="3" customWidth="1"/>
+    <col min="11" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="34.3628318584071" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.7256637168142" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.3628318584071" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.7256637168142" style="3" customWidth="1"/>
+    <col min="18" max="18" width="28" style="3" customWidth="1"/>
+    <col min="19" max="20" width="9" style="3"/>
+    <col min="21" max="21" width="11.8141592920354" style="3" customWidth="1"/>
+    <col min="22" max="23" width="9" style="3"/>
+    <col min="24" max="24" width="20.8141592920354" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.6371681415929" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="3">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.09558978</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.0871161</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.715</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.2857</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N32" si="0">(R3)/MAX(F3,1)</f>
+        <v>0.0010229798</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O32" si="1">S3/MAX(F3,1)</f>
+        <v>0.0010545455</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P32" si="2">T3/MAX(F3,1)</f>
+        <v>0.0011424242</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q32" si="3">U3/MAX(F3,1)</f>
+        <v>0.0001463616</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.10229798</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.10545455</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.11424242</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.01463616</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.07447719</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.05788635</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.795</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.2214286</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0008633838</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0012878788</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.001110101</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.0001283241</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.08633838</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.12878788</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.1110101</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.01283241</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="3">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.06931898</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.007829347</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.905</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.175</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0004391414</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0012371212</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0011252525</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.0001209802</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.04391414</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.12371212</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.11252525</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.01209802</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.06943398</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.01324814</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.945</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.1442857</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0002472222</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0014646465</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0013424242</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.0001216038</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.02472222</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.14646465</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.13424242</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.01216038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="3">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.07174324</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.01315431</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.995</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.475</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.265</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.09642857</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5e-5</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00133207071</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00098257576</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>8.490517e-5</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.0025</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.133207071</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.098257576</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.008490517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3">
+        <v>150</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.08586257</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.01458808</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.06428571</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00126161616</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00076666667</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
+        <v>5.926613e-5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.126161616</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.076666667</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.005926613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="3">
+        <v>300</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.1184795</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.02552647</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.145</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.03785714</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00133813131</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00057045455</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="3"/>
+        <v>3.757473e-5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.133813131</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.057045455</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.003757473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.2686528</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.07126133</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.02142857</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00138863636</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00018585859</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="3"/>
+        <v>2.216038e-5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.138863636</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.018585859</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.002216038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.750314</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.04806091</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.01666667</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.00952381</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00517241379333333</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000277777776666667</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
+        <v>2.032997e-5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.1551724138</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.0083333333</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.0006098991</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6.994325</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.01819738</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6.893713</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.06068683</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.46666667</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.01666667</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00455938696666667</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000277777766666667</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.136781609</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.008333333</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="3">
+        <v>150</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.9181527</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.8810326</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.976</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.506</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.207</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.07957143</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.246465e-5</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00029862626</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00026112121</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>4.029087e-5</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.002246465</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.029862626</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.026112121</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.004029087</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3">
+        <v>250</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.8890226</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.1300654</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.504</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.087</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.03842857</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.979798e-6</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000258424242</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000118494949</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1714904e-5</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.0001979798</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.0258424242</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.0118494949</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.0021714904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="3">
+        <v>300</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.9837416</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.168416</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.522</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.097</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.03414286</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>1e-6</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00030622222</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00015849495</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.727046e-5</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.0001</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.030622222</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.015849495</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.001727046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.429269</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.4838797</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.4766667</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000705363983333333</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000164367816666667</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
+        <v>1.03917433333333e-5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.0211609195</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.0049310345</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.0003117523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3">
+        <v>12.02075</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.3899848</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.033333333</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.004761905</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000808046</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000145593866666667</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="3"/>
+        <v>2.50215033333333e-6</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.02424138</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.004367816</v>
+      </c>
+      <c r="U19" s="3">
+        <v>7.506451e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>300</v>
+      </c>
+      <c r="C20" s="3">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>12.99791</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.706044</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.01259259</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0019555556</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0007222222</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3533e-5</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.019555556</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.007222222</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.00023533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="3">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.09205046</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.09214324</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.4914286</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.295</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.085</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0002472222</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0014646465</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0013424242</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.0001216038</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.02472222</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.14646465</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.13424242</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.01216038</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="3">
+        <v>150</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.08843094</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.01639179</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.4921429</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000216342</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0006505051</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.0001858586</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.0216342</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.06505051</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.01858586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="3">
+        <v>300</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.1209957</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.02945575</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.5028571</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.095</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0001514327</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0004391414</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="3"/>
+        <v>9.69697e-5</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.01514327</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.04391414</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.00969697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="3">
+        <v>150</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.1005035</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.02351711</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.9971429</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.045</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.978973e-6</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.001161616162</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000732323232</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.000206818182</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.0001978973</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.1161616162</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.0732323232</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.0206818182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="3">
+        <v>150</v>
+      </c>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.08573472</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.01670307</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.515</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.1835714</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="0"/>
+        <v>4.949495e-5</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00128560606</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00016208514</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.00037272727</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.004949495</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.128560606</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.016208514</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.037272727</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="3">
+        <v>150</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.08145574</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.01717493</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.49666667</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.04880952</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00039015236</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00024882943</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="3"/>
+        <v>1.51819366666667e-5</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.117045708</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.074648829</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.004554581</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="3">
+        <v>150</v>
+      </c>
+      <c r="B27" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.07132676</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.01399421</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.10333333</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.03190476</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000395763656666667</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00015938313</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="3"/>
+        <v>1.28629833333333e-5</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.118729097</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.047814939</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.003858895</v>
+      </c>
+      <c r="V27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="3">
+        <v>150</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>300</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.07072505</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.01330146</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.08833333</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.03261905</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000395763666666667</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0001439149</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="3"/>
+        <v>1.17419e-5</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.1187291</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.04317447</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.00352257</v>
+      </c>
+      <c r="V28" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="3">
+        <v>150</v>
+      </c>
+      <c r="B29" s="3">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>300</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.06973928</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.01304113</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.09166667</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.03238095</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000395763666666667</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000147482333333333</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="3"/>
+        <v>1.10542333333333e-5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.1187291</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.0442447</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.00331627</v>
+      </c>
+      <c r="V29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="3">
+        <v>150</v>
+      </c>
+      <c r="B30" s="3">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>300</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.07125768</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.01455002</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.09166667</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.03238095</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.000395763666666667</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000147482333333333</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="3"/>
+        <v>1.10542333333333e-5</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.1187291</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.0442447</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.00331627</v>
+      </c>
+      <c r="V30" s="3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="3">
+        <v>150</v>
+      </c>
+      <c r="B31" s="3">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>300</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.08753448</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.01795514</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.4916667</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.0452381</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00040946674</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000313600893333333</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="3"/>
+        <v>1.397326e-5</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.122840022</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.094080268</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.004191978</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W31" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="3">
+        <v>150</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.08941155</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.01914834</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.21833333</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.04666667</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.00043191193</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.000278140096666667</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="3"/>
+        <v>1.41029433333333e-5</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.129573579</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.083442029</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.004230883</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W32" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="23:25">
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
     <col min="1" max="1" width="8.36283185840708" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1769911504425" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7256637168142" style="1" customWidth="1"/>
@@ -12323,23 +14586,12 @@
     <col min="8" max="8" width="14.2654867256637" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.9026548672566" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.5398230088496" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="34.3628318584071" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7256637168142" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3628318584071" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7256637168142" style="1" customWidth="1"/>
-    <col min="18" max="18" width="28" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="11.8141592920354" style="1" customWidth="1"/>
-    <col min="22" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="20.8141592920354" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6371681415929" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12349,27 +14601,27 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -12378,2163 +14630,588 @@
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
       <c r="G3" s="1">
-        <v>0.09558978</v>
+        <v>0.0429104</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="1">
-        <v>0.0871161</v>
+        <v>0.02343674</v>
       </c>
       <c r="J3" s="1">
-        <v>0.715</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.2857</v>
-      </c>
-      <c r="N3" s="1">
-        <f>(R3)/MAX(F3,1)</f>
-        <v>0.0010229798</v>
-      </c>
-      <c r="O3" s="1">
-        <f>S3/MAX(F3,1)</f>
-        <v>0.0010545455</v>
-      </c>
-      <c r="P3" s="1">
-        <f>T3/MAX(F3,1)</f>
-        <v>0.0011424242</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>U3/MAX(F3,1)</f>
-        <v>0.0001463616</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.10229798</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.10545455</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.11424242</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.01463616</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
       <c r="G4" s="1">
-        <v>0.07447719</v>
+        <v>1.776074</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>0.05788635</v>
+        <v>0.7888611</v>
       </c>
       <c r="J4" s="1">
-        <v>0.795</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.2214286</v>
-      </c>
-      <c r="N4" s="1">
-        <f>(R4)/MAX(F4,1)</f>
-        <v>0.0008633838</v>
-      </c>
-      <c r="O4" s="1">
-        <f>S4/MAX(F4,1)</f>
-        <v>0.0012878788</v>
-      </c>
-      <c r="P4" s="1">
-        <f>T4/MAX(F4,1)</f>
-        <v>0.001110101</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>U4/MAX(F4,1)</f>
-        <v>0.0001283241</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.08633838</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.12878788</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.1110101</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.01283241</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>395.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>100</v>
-      </c>
       <c r="G5" s="1">
-        <v>0.06931898</v>
+        <v>10.41811</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <v>0.007829347</v>
+        <v>5.486186</v>
       </c>
       <c r="J5" s="1">
-        <v>0.905</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.495</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.175</v>
-      </c>
-      <c r="N5" s="1">
-        <f>(R5)/MAX(F5,1)</f>
-        <v>0.0004391414</v>
-      </c>
-      <c r="O5" s="1">
-        <f>S5/MAX(F5,1)</f>
-        <v>0.0012371212</v>
-      </c>
-      <c r="P5" s="1">
-        <f>T5/MAX(F5,1)</f>
-        <v>0.0011252525</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>U5/MAX(F5,1)</f>
-        <v>0.0001209802</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.04391414</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.12371212</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.11252525</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.01209802</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>785.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="B6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
       <c r="G6" s="1">
-        <v>0.06943398</v>
+        <v>33.06411</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="1">
-        <v>0.01324814</v>
+        <v>24.11118</v>
       </c>
       <c r="J6" s="1">
-        <v>0.945</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.1442857</v>
-      </c>
-      <c r="N6" s="1">
-        <f>(R6)/MAX(F6,1)</f>
-        <v>0.0002472222</v>
-      </c>
-      <c r="O6" s="1">
-        <f>S6/MAX(F6,1)</f>
-        <v>0.0014646465</v>
-      </c>
-      <c r="P6" s="1">
-        <f>T6/MAX(F6,1)</f>
-        <v>0.0013424242</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>U6/MAX(F6,1)</f>
-        <v>0.0001216038</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.02472222</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.14646465</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.13424242</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.01216038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>1193.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.892327</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.05827703</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1989.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14.91923</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.6677357</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4008.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.07174324</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.01315431</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.995</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.475</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.265</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.09642857</v>
-      </c>
-      <c r="N7" s="1">
-        <f>(R7)/MAX(F7,1)</f>
-        <v>2.5e-5</v>
-      </c>
-      <c r="O7" s="1">
-        <f>S7/MAX(F7,1)</f>
-        <v>0.00133207071</v>
-      </c>
-      <c r="P7" s="1">
-        <f>T7/MAX(F7,1)</f>
-        <v>0.00098257576</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>U7/MAX(F7,1)</f>
-        <v>8.490517e-5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.0025</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.133207071</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.098257576</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0.008490517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="1">
-        <v>150</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.08586257</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.01458808</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.06428571</v>
-      </c>
-      <c r="N8" s="1">
-        <f>(R8)/MAX(F8,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <f>S8/MAX(F8,1)</f>
-        <v>0.00126161616</v>
-      </c>
-      <c r="P8" s="1">
-        <f>T8/MAX(F8,1)</f>
-        <v>0.00076666667</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>U8/MAX(F8,1)</f>
-        <v>5.926613e-5</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.126161616</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.076666667</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0.005926613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="1">
-        <v>300</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.1184795</v>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1">
-        <v>0.02552647</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.495</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.145</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.03785714</v>
-      </c>
-      <c r="N9" s="1">
-        <f>(R9)/MAX(F9,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <f>S9/MAX(F9,1)</f>
-        <v>0.00133813131</v>
-      </c>
-      <c r="P9" s="1">
-        <f>T9/MAX(F9,1)</f>
-        <v>0.00057045455</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>U9/MAX(F9,1)</f>
-        <v>3.757473e-5</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.133813131</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.057045455</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0.003757473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>1000</v>
       </c>
       <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>100</v>
-      </c>
       <c r="G10" s="1">
-        <v>0.2686528</v>
+        <v>6.053403</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>0.07126133</v>
+        <v>5.681075</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.505</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.02142857</v>
-      </c>
-      <c r="N10" s="1">
-        <f>(R10)/MAX(F10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <f>S10/MAX(F10,1)</f>
-        <v>0.00138863636</v>
-      </c>
-      <c r="P10" s="1">
-        <f>T10/MAX(F10,1)</f>
-        <v>0.00018585859</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>U10/MAX(F10,1)</f>
-        <v>2.216038e-5</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.138863636</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.018585859</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0.002216038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>395.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.13896</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.3004497</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1183.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
         <v>5000</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.496861</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.3185076</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.750314</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.04806091</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.01666667</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.00952381</v>
-      </c>
-      <c r="N11" s="1">
-        <f>(R11)/MAX(F11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <f>S11/MAX(F11,1)</f>
-        <v>0.00517241379333333</v>
-      </c>
-      <c r="P11" s="1">
-        <f>T11/MAX(F11,1)</f>
-        <v>0.000277777776666667</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>U11/MAX(F11,1)</f>
-        <v>2.032997e-5</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.1551724138</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.0083333333</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0.0006098991</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6.994325</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.01819738</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <f>(R12)/MAX(F12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f>S12/MAX(F12,1)</f>
-        <v>0.01</v>
-      </c>
-      <c r="P12" s="1">
-        <f>T12/MAX(F12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>U12/MAX(F12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6.893713</v>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="1">
-        <v>0.06068683</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.46666667</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.01666667</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <f>(R13)/MAX(F13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <f>S13/MAX(F13,1)</f>
-        <v>0.00455938696666667</v>
-      </c>
-      <c r="P13" s="1">
-        <f>T13/MAX(F13,1)</f>
-        <v>0.000277777766666667</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>U13/MAX(F13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.136781609</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.008333333</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="I13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
         <v>20</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="1">
-        <f>(R14)/MAX(F14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <f>S14/MAX(F14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <f>T14/MAX(F14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>U14/MAX(F14,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1">
-        <v>150</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.9181527</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.8810326</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.976</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.506</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.207</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.07957143</v>
-      </c>
-      <c r="N15" s="1">
-        <f>(R15)/MAX(F15,1)</f>
-        <v>2.246465e-5</v>
-      </c>
-      <c r="O15" s="1">
-        <f>S15/MAX(F15,1)</f>
-        <v>0.00029862626</v>
-      </c>
-      <c r="P15" s="1">
-        <f>T15/MAX(F15,1)</f>
-        <v>0.00026112121</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>U15/MAX(F15,1)</f>
-        <v>4.029087e-5</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.002246465</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.029862626</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.026112121</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0.004029087</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1">
-        <v>250</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>100</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.8890226</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.1300654</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.998</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.504</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.087</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.03842857</v>
-      </c>
-      <c r="N16" s="1">
-        <f>(R16)/MAX(F16,1)</f>
-        <v>1.979798e-6</v>
-      </c>
-      <c r="O16" s="1">
-        <f>S16/MAX(F16,1)</f>
-        <v>0.000258424242</v>
-      </c>
-      <c r="P16" s="1">
-        <f>T16/MAX(F16,1)</f>
-        <v>0.000118494949</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>U16/MAX(F16,1)</f>
-        <v>2.1714904e-5</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.0001979798</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.0258424242</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.0118494949</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0.0021714904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1">
-        <v>300</v>
-      </c>
-      <c r="B17" s="1">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
       <c r="F17" s="1">
-        <v>100</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.9837416</v>
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="1">
-        <v>0.168416</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.522</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.097</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.03414286</v>
-      </c>
-      <c r="N17" s="1">
-        <f>(R17)/MAX(F17,1)</f>
-        <v>1e-6</v>
-      </c>
-      <c r="O17" s="1">
-        <f>S17/MAX(F17,1)</f>
-        <v>0.00030622222</v>
-      </c>
-      <c r="P17" s="1">
-        <f>T17/MAX(F17,1)</f>
-        <v>0.00015849495</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>U17/MAX(F17,1)</f>
-        <v>1.727046e-5</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0.0001</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0.030622222</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0.015849495</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0.001727046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>1000</v>
       </c>
       <c r="B18" s="1">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
       <c r="F18" s="1">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2.429269</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="1">
-        <v>0.4838797</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.4766667</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="N18" s="1">
-        <f>(R18)/MAX(F18,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <f>S18/MAX(F18,1)</f>
-        <v>0.000705363983333333</v>
-      </c>
-      <c r="P18" s="1">
-        <f>T18/MAX(F18,1)</f>
-        <v>0.000164367816666667</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>U18/MAX(F18,1)</f>
-        <v>1.03917433333333e-5</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.0211609195</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.0049310345</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0.0003117523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="I18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B19" s="1">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
       <c r="F19" s="1">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>12.02075</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.3899848</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.033333333</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.004761905</v>
-      </c>
-      <c r="N19" s="1">
-        <f>(R19)/MAX(F19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <f>S19/MAX(F19,1)</f>
-        <v>0.000808046</v>
-      </c>
-      <c r="P19" s="1">
-        <f>T19/MAX(F19,1)</f>
-        <v>0.000145593866666667</v>
-      </c>
-      <c r="Q19" s="1">
-        <f>U19/MAX(F19,1)</f>
-        <v>2.50215033333333e-6</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0.02424138</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.004367816</v>
-      </c>
-      <c r="U19" s="1">
-        <v>7.506451e-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>1000</v>
       </c>
       <c r="B20" s="1">
-        <v>300</v>
+        <v>0.2</v>
       </c>
       <c r="C20" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D20" s="1">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>600</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="1">
-        <v>12.99791</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3.706044</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.01259259</v>
-      </c>
-      <c r="N20" s="1">
-        <f>(R20)/MAX(F20,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <f>S20/MAX(F20,1)</f>
-        <v>0.0019555556</v>
-      </c>
-      <c r="P20" s="1">
-        <f>T20/MAX(F20,1)</f>
-        <v>0.0007222222</v>
-      </c>
-      <c r="Q20" s="1">
-        <f>U20/MAX(F20,1)</f>
-        <v>2.3533e-5</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.019555556</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.007222222</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.00023533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
       <c r="F21" s="1">
-        <v>100</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.09205046</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.09214324</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.4914286</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.295</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.085</v>
-      </c>
-      <c r="N21" s="1">
-        <f>(R21)/MAX(F21,1)</f>
-        <v>0.0002472222</v>
-      </c>
-      <c r="O21" s="1">
-        <f>S21/MAX(F21,1)</f>
-        <v>0.0014646465</v>
-      </c>
-      <c r="P21" s="1">
-        <f>T21/MAX(F21,1)</f>
-        <v>0.0013424242</v>
-      </c>
-      <c r="Q21" s="1">
-        <f>U21/MAX(F21,1)</f>
-        <v>0.0001216038</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0.02472222</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.14646465</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.13424242</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0.01216038</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1">
-        <v>150</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.08843094</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.01639179</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.4921429</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="N22" s="1">
-        <f>(R22)/MAX(F22,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <f>S22/MAX(F22,1)</f>
-        <v>0.000216342</v>
-      </c>
-      <c r="P22" s="1">
-        <f>T22/MAX(F22,1)</f>
-        <v>0.0006505051</v>
-      </c>
-      <c r="Q22" s="1">
-        <f>U22/MAX(F22,1)</f>
-        <v>0.0001858586</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.0216342</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.06505051</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0.01858586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1">
-        <v>300</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>100</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.1209957</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.02945575</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.5028571</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.095</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="N23" s="1">
-        <f>(R23)/MAX(F23,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <f>S23/MAX(F23,1)</f>
-        <v>0.0001514327</v>
-      </c>
-      <c r="P23" s="1">
-        <f>T23/MAX(F23,1)</f>
-        <v>0.0004391414</v>
-      </c>
-      <c r="Q23" s="1">
-        <f>U23/MAX(F23,1)</f>
-        <v>9.69697e-5</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.01514327</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.04391414</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0.00969697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1">
-        <v>150</v>
-      </c>
-      <c r="B24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>100</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.1005035</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.02351711</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.9971429</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.045</v>
-      </c>
-      <c r="N24" s="1">
-        <f>(R24)/MAX(F24,1)</f>
-        <v>1.978973e-6</v>
-      </c>
-      <c r="O24" s="1">
-        <f>S24/MAX(F24,1)</f>
-        <v>0.001161616162</v>
-      </c>
-      <c r="P24" s="1">
-        <f>T24/MAX(F24,1)</f>
-        <v>0.000732323232</v>
-      </c>
-      <c r="Q24" s="1">
-        <f>U24/MAX(F24,1)</f>
-        <v>0.000206818182</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0.0001978973</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.1161616162</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.0732323232</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0.0206818182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="1">
-        <v>150</v>
-      </c>
-      <c r="B25" s="1">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1">
-        <v>100</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.08573472</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.01670307</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.515</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.1835714</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="N25" s="1">
-        <f>(R25)/MAX(F25,1)</f>
-        <v>4.949495e-5</v>
-      </c>
-      <c r="O25" s="1">
-        <f>S25/MAX(F25,1)</f>
-        <v>0.00128560606</v>
-      </c>
-      <c r="P25" s="1">
-        <f>T25/MAX(F25,1)</f>
-        <v>0.00016208514</v>
-      </c>
-      <c r="Q25" s="1">
-        <f>U25/MAX(F25,1)</f>
-        <v>0.00037272727</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0.004949495</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.128560606</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.016208514</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0.037272727</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="1">
-        <v>150</v>
-      </c>
-      <c r="B26" s="1">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>300</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.08145574</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.01717493</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.49666667</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.04880952</v>
-      </c>
-      <c r="N26" s="1">
-        <f>(R26)/MAX(F26,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <f>S26/MAX(F26,1)</f>
-        <v>0.00039015236</v>
-      </c>
-      <c r="P26" s="1">
-        <f>T26/MAX(F26,1)</f>
-        <v>0.00024882943</v>
-      </c>
-      <c r="Q26" s="1">
-        <f>U26/MAX(F26,1)</f>
-        <v>1.51819366666667e-5</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.117045708</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.074648829</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0.004554581</v>
-      </c>
-      <c r="V26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="1">
-        <v>150</v>
-      </c>
-      <c r="B27" s="1">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>300</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.07132676</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.01399421</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.10333333</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.03190476</v>
-      </c>
-      <c r="N27" s="1">
-        <f>(R27)/MAX(F27,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <f>S27/MAX(F27,1)</f>
-        <v>0.000395763656666667</v>
-      </c>
-      <c r="P27" s="1">
-        <f>T27/MAX(F27,1)</f>
-        <v>0.00015938313</v>
-      </c>
-      <c r="Q27" s="1">
-        <f>U27/MAX(F27,1)</f>
-        <v>1.28629833333333e-5</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.118729097</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.047814939</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0.003858895</v>
-      </c>
-      <c r="V27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="1">
-        <v>150</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>300</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.07072505</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.01330146</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.08833333</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.03261905</v>
-      </c>
-      <c r="N28" s="1">
-        <f>(R28)/MAX(F28,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <f>S28/MAX(F28,1)</f>
-        <v>0.000395763666666667</v>
-      </c>
-      <c r="P28" s="1">
-        <f>T28/MAX(F28,1)</f>
-        <v>0.0001439149</v>
-      </c>
-      <c r="Q28" s="1">
-        <f>U28/MAX(F28,1)</f>
-        <v>1.17419e-5</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.1187291</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.04317447</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0.00352257</v>
-      </c>
-      <c r="V28" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="1">
-        <v>150</v>
-      </c>
-      <c r="B29" s="1">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>300</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.06973928</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.01304113</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.09166667</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.03238095</v>
-      </c>
-      <c r="N29" s="1">
-        <f>(R29)/MAX(F29,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <f>S29/MAX(F29,1)</f>
-        <v>0.000395763666666667</v>
-      </c>
-      <c r="P29" s="1">
-        <f>T29/MAX(F29,1)</f>
-        <v>0.000147482333333333</v>
-      </c>
-      <c r="Q29" s="1">
-        <f>U29/MAX(F29,1)</f>
-        <v>1.10542333333333e-5</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.1187291</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0.0442447</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0.00331627</v>
-      </c>
-      <c r="V29" s="1">
-        <v>5000</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="1">
-        <v>150</v>
-      </c>
-      <c r="B30" s="1">
-        <v>20</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>300</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.07125768</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.01455002</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.09166667</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.03238095</v>
-      </c>
-      <c r="N30" s="1">
-        <f>(R30)/MAX(F30,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <f>S30/MAX(F30,1)</f>
-        <v>0.000395763666666667</v>
-      </c>
-      <c r="P30" s="1">
-        <f>T30/MAX(F30,1)</f>
-        <v>0.000147482333333333</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>U30/MAX(F30,1)</f>
-        <v>1.10542333333333e-5</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0.1187291</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0.0442447</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0.00331627</v>
-      </c>
-      <c r="V30" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="1">
-        <v>150</v>
-      </c>
-      <c r="B31" s="1">
-        <v>20</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
-        <v>300</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.08753448</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.01795514</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.4916667</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.0452381</v>
-      </c>
-      <c r="N31" s="1">
-        <f>(R31)/MAX(F31,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <f>S31/MAX(F31,1)</f>
-        <v>0.00040946674</v>
-      </c>
-      <c r="P31" s="1">
-        <f>T31/MAX(F31,1)</f>
-        <v>0.000313600893333333</v>
-      </c>
-      <c r="Q31" s="1">
-        <f>U31/MAX(F31,1)</f>
-        <v>1.397326e-5</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0.122840022</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0.094080268</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0.004191978</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W31" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="1">
-        <v>150</v>
-      </c>
-      <c r="B32" s="1">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1">
-        <v>300</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.08941155</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.01914834</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.495</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.21833333</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.04666667</v>
-      </c>
-      <c r="N32" s="1">
-        <f>(R32)/MAX(F32,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <f>S32/MAX(F32,1)</f>
-        <v>0.00043191193</v>
-      </c>
-      <c r="P32" s="1">
-        <f>T32/MAX(F32,1)</f>
-        <v>0.000278140096666667</v>
-      </c>
-      <c r="Q32" s="1">
-        <f>U32/MAX(F32,1)</f>
-        <v>1.41029433333333e-5</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0.129573579</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0.083442029</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0.004230883</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W32" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="23:25">
-      <c r="W33" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -14544,6 +15221,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>